--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1225,24 +1225,75 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="12" t="s">
+      <c r="A30" s="6">
+        <v>43930</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>25010</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:D31" si="4">SUM(C30,-C28)</f>
+        <v>365</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" ref="F30:F31" si="5">PRODUCT(D30,E30)</f>
+        <v>1638.8500000000001</v>
+      </c>
+      <c r="G30" s="13">
+        <f>SUM(F30,F31)</f>
+        <v>2030.0800000000002</v>
+      </c>
+      <c r="H30" s="13">
+        <v>2030.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>11889</v>
+      </c>
+      <c r="D31" s="2">
+        <f>SUM(C31,-C29)</f>
+        <v>161</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="5"/>
+        <v>391.23</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="13">
-        <f>SUM(G2:G29)</f>
-        <v>30083.37</v>
-      </c>
-      <c r="H30" s="13">
-        <f>SUM(H2:H29)</f>
-        <v>30312.610000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13">
-        <f>SUM(H30,-G30)</f>
-        <v>229.24000000000524</v>
+      <c r="G32" s="13">
+        <f>SUM(G2:G31)</f>
+        <v>32113.45</v>
+      </c>
+      <c r="H32" s="13">
+        <f>SUM(H2:H31)</f>
+        <v>32342.810000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13">
+        <f>SUM(H32,-G32)</f>
+        <v>229.36000000000422</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1235,7 @@
         <v>25010</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30:D31" si="4">SUM(C30,-C28)</f>
+        <f t="shared" ref="D30:D32" si="4">SUM(C30,-C28)</f>
         <v>365</v>
       </c>
       <c r="E30" s="2">
@@ -1276,24 +1276,75 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32" s="12" t="s">
+      <c r="A32" s="6">
+        <v>43965</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>25646</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
+        <v>636</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" ref="F32:F33" si="6">PRODUCT(D32,E32)</f>
+        <v>2855.6400000000003</v>
+      </c>
+      <c r="G32" s="13">
+        <f>SUM(F32,F33)</f>
+        <v>3577.3500000000004</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3638.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12186</v>
+      </c>
+      <c r="D33" s="2">
+        <f>SUM(C33,-C31)</f>
+        <v>297</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="6"/>
+        <v>721.71</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="13">
-        <f>SUM(G2:G31)</f>
-        <v>32113.45</v>
-      </c>
-      <c r="H32" s="13">
-        <f>SUM(H2:H31)</f>
-        <v>32342.810000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13">
-        <f>SUM(H32,-G32)</f>
-        <v>229.36000000000422</v>
+      <c r="G34" s="13">
+        <f>SUM(G2:G33)</f>
+        <v>35690.800000000003</v>
+      </c>
+      <c r="H34" s="13">
+        <f>SUM(H2:H33)</f>
+        <v>35981.800000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13">
+        <f>SUM(H34,-G34)</f>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1327,24 +1327,75 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="12" t="s">
+      <c r="A34" s="6">
+        <v>43997</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>26114</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:D35" si="7">SUM(C34,-C32)</f>
+        <v>468</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" ref="F34:F35" si="8">PRODUCT(D34,E34)</f>
+        <v>2101.3200000000002</v>
+      </c>
+      <c r="G34" s="13">
+        <f>SUM(F34,F35)</f>
+        <v>2691.8100000000004</v>
+      </c>
+      <c r="H34" s="13">
+        <v>2719.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12429</v>
+      </c>
+      <c r="D35" s="2">
+        <f>SUM(C35,-C33)</f>
+        <v>243</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="8"/>
+        <v>590.49</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="13">
-        <f>SUM(G2:G33)</f>
-        <v>35690.800000000003</v>
-      </c>
-      <c r="H34" s="13">
-        <f>SUM(H2:H33)</f>
-        <v>35981.800000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13">
-        <f>SUM(H34,-G34)</f>
-        <v>291</v>
+      <c r="G36" s="13">
+        <f>SUM(G2:G35)</f>
+        <v>38382.61</v>
+      </c>
+      <c r="H36" s="13">
+        <f>SUM(H2:H35)</f>
+        <v>38701.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13">
+        <f>SUM(H36,-G36)</f>
+        <v>318.72000000000116</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
         <v>26114</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:D35" si="7">SUM(C34,-C32)</f>
+        <f t="shared" ref="D34" si="7">SUM(C34,-C32)</f>
         <v>468</v>
       </c>
       <c r="E34" s="2">
@@ -1378,24 +1378,75 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="12" t="s">
+      <c r="A36" s="6">
+        <v>44022</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>26471</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36" si="9">SUM(C36,-C34)</f>
+        <v>357</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" ref="F36:F37" si="10">PRODUCT(D36,E36)</f>
+        <v>1602.93</v>
+      </c>
+      <c r="G36" s="13">
+        <f>SUM(F36,F37)</f>
+        <v>1926.1200000000001</v>
+      </c>
+      <c r="H36" s="13">
+        <v>1936.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12562</v>
+      </c>
+      <c r="D37" s="2">
+        <f>SUM(C37,-C35)</f>
+        <v>133</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="10"/>
+        <v>323.19</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="13">
-        <f>SUM(G2:G35)</f>
-        <v>38382.61</v>
-      </c>
-      <c r="H36" s="13">
-        <f>SUM(H2:H35)</f>
-        <v>38701.33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13">
-        <f>SUM(H36,-G36)</f>
-        <v>318.72000000000116</v>
+      <c r="G38" s="13">
+        <f>SUM(G2:G37)</f>
+        <v>40308.730000000003</v>
+      </c>
+      <c r="H38" s="13">
+        <f>SUM(H2:H37)</f>
+        <v>40637.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13">
+        <f>SUM(H38,-G38)</f>
+        <v>328.95999999999913</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -484,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1429,24 +1429,75 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F38" s="12" t="s">
+      <c r="A38" s="6">
+        <v>44060</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>26785</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38" si="11">SUM(C38,-C36)</f>
+        <v>314</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" ref="F38:F39" si="12">PRODUCT(D38,E38)</f>
+        <v>1478.94</v>
+      </c>
+      <c r="G38" s="13">
+        <f>SUM(F38,F39)</f>
+        <v>1779.8400000000001</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1693.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>12680</v>
+      </c>
+      <c r="D39" s="2">
+        <f>SUM(C39,-C37)</f>
+        <v>118</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="12"/>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="13">
-        <f>SUM(G2:G37)</f>
-        <v>40308.730000000003</v>
-      </c>
-      <c r="H38" s="13">
-        <f>SUM(H2:H37)</f>
-        <v>40637.69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13">
-        <f>SUM(H38,-G38)</f>
-        <v>328.95999999999913</v>
+      <c r="G40" s="13">
+        <f>SUM(G2:G39)</f>
+        <v>42088.570000000007</v>
+      </c>
+      <c r="H40" s="13">
+        <f>SUM(H2:H39)</f>
+        <v>42330.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13">
+        <f>SUM(H40,-G40)</f>
+        <v>242.21999999999389</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
 </sst>
 </file>
@@ -1480,25 +1477,55 @@
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="12" t="s">
-        <v>10</v>
+      <c r="A40" s="6">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>27085</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="13">SUM(C40,-C38)</f>
+        <v>300</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" ref="F40:F41" si="14">PRODUCT(D40,E40)</f>
+        <v>1413</v>
       </c>
       <c r="G40" s="13">
-        <f>SUM(G2:G39)</f>
-        <v>42088.570000000007</v>
+        <f>SUM(F40,F41)</f>
+        <v>1642.5</v>
       </c>
       <c r="H40" s="13">
-        <f>SUM(H2:H39)</f>
-        <v>42330.79</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="12"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12770</v>
+      </c>
+      <c r="D41" s="2">
+        <f>SUM(C41,-C39)</f>
+        <v>90</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="14"/>
+        <v>229.49999999999997</v>
+      </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="13">
-        <f>SUM(H40,-G40)</f>
-        <v>242.21999999999389</v>
-      </c>
+      <c r="H41" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1526,6 +1526,74 @@
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>44147</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>27970</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="15">SUM(C42,-C40)</f>
+        <v>885</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" ref="F42:F43" si="16">PRODUCT(D42,E42)</f>
+        <v>4168.3500000000004</v>
+      </c>
+      <c r="G42" s="13">
+        <f>SUM(F42,F43)</f>
+        <v>5111.8500000000004</v>
+      </c>
+      <c r="H42" s="13">
+        <v>4928.7299999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>13140</v>
+      </c>
+      <c r="D43" s="2">
+        <f>SUM(C43,-C41)</f>
+        <v>370</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="16"/>
+        <v>943.49999999999989</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="12">
+        <f>SUM(G2:G43)</f>
+        <v>48842.920000000006</v>
+      </c>
+      <c r="H44" s="12">
+        <f>SUM(H2:H43)</f>
+        <v>48869.520000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12">
+        <f>SUM(H44,-G44)</f>
+        <v>26.599999999998545</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -481,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1579,19 +1579,68 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G44" s="12">
+      <c r="A44" s="6">
+        <v>44180</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" ref="F44:F45" si="17">PRODUCT(D44,E44)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <f>SUM(F44,F45)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>6775.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="12">
         <f>SUM(G2:G43)</f>
         <v>48842.920000000006</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H46" s="12">
         <f>SUM(H2:H43)</f>
         <v>48869.520000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="12"/>
-      <c r="H45" s="12">
-        <f>SUM(H44,-G44)</f>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="12"/>
+      <c r="H47" s="12">
+        <f>SUM(H46,-G46)</f>
         <v>26.599999999998545</v>
       </c>
     </row>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +174,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1628,20 +1629,71 @@
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G46" s="12">
-        <f>SUM(G2:G43)</f>
-        <v>48842.920000000006</v>
-      </c>
-      <c r="H46" s="12">
-        <f>SUM(H2:H43)</f>
-        <v>48869.520000000004</v>
+      <c r="A46" s="6">
+        <v>44214</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>30495</v>
+      </c>
+      <c r="D46" s="2">
+        <f>SUM(C46,-C42)</f>
+        <v>2525</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" ref="F46:F47" si="18">PRODUCT(D46,E46)</f>
+        <v>11892.75</v>
+      </c>
+      <c r="G46" s="13">
+        <f>SUM(F46,F47)</f>
+        <v>14940</v>
+      </c>
+      <c r="H46" s="13">
+        <v>7757.38</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G47" s="12"/>
-      <c r="H47" s="12">
-        <f>SUM(H46,-G46)</f>
-        <v>26.599999999998545</v>
+      <c r="A47" s="6"/>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>14335</v>
+      </c>
+      <c r="D47" s="2">
+        <f>SUM(C47,-C43)</f>
+        <v>1195</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="18"/>
+        <v>3047.25</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="12">
+        <f>SUM(G2:G47)</f>
+        <v>63782.920000000006</v>
+      </c>
+      <c r="H48" s="12">
+        <f>SUM(H2:H47)</f>
+        <v>63401.920000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+      <c r="H49" s="14">
+        <f>SUM(H48,-G48)</f>
+        <v>-381</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1680,20 +1680,122 @@
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G48" s="12">
-        <f>SUM(G2:G47)</f>
-        <v>63782.920000000006</v>
-      </c>
-      <c r="H48" s="12">
-        <f>SUM(H2:H47)</f>
-        <v>63401.920000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G49" s="12"/>
-      <c r="H49" s="14">
-        <f>SUM(H48,-G48)</f>
-        <v>-381</v>
+      <c r="A48" s="6">
+        <v>44245</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>31206</v>
+      </c>
+      <c r="D48" s="2">
+        <f>SUM(C48,-C46)</f>
+        <v>711</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" ref="F48:F49" si="19">PRODUCT(D48,E48)</f>
+        <v>3348.81</v>
+      </c>
+      <c r="G48" s="13">
+        <f>SUM(F48,F49)</f>
+        <v>4195.41</v>
+      </c>
+      <c r="H48" s="13">
+        <v>4042.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>14667</v>
+      </c>
+      <c r="D49" s="2">
+        <f>SUM(C49,-C47)</f>
+        <v>332</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="19"/>
+        <v>846.59999999999991</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>44270</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>32186</v>
+      </c>
+      <c r="D50" s="2">
+        <f>SUM(C50,-C48)</f>
+        <v>980</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" ref="F50:F51" si="20">PRODUCT(D50,E50)</f>
+        <v>4615.8</v>
+      </c>
+      <c r="G50" s="13">
+        <f>SUM(F50,F51)</f>
+        <v>5490.45</v>
+      </c>
+      <c r="H50" s="13">
+        <v>5630.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>15010</v>
+      </c>
+      <c r="D51" s="2">
+        <f>SUM(C51,-C49)</f>
+        <v>343</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="20"/>
+        <v>874.65</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="12">
+        <f>SUM(G2:G51)</f>
+        <v>73468.78</v>
+      </c>
+      <c r="H52" s="12">
+        <f>SUM(H2:H51)</f>
+        <v>73075.540000000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="12"/>
+      <c r="H53" s="14">
+        <f>SUM(H52,-G52)</f>
+        <v>-393.23999999999069</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1782,19 +1782,121 @@
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G52" s="12">
+      <c r="A52" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>33099</v>
+      </c>
+      <c r="D52" s="2">
+        <f>SUM(C52,-C50)</f>
+        <v>913</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" ref="F52:F53" si="21">PRODUCT(D52,E52)</f>
+        <v>4300.2299999999996</v>
+      </c>
+      <c r="G52" s="13">
+        <f>SUM(F52,F53)</f>
+        <v>5679.78</v>
+      </c>
+      <c r="H52" s="13">
+        <v>5326.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>15551</v>
+      </c>
+      <c r="D53" s="2">
+        <f>SUM(C53,-C51)</f>
+        <v>541</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="21"/>
+        <v>1379.55</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>34095</v>
+      </c>
+      <c r="D54" s="2">
+        <f>SUM(C54,-C52)</f>
+        <v>996</v>
+      </c>
+      <c r="E54" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" ref="F54:F55" si="22">PRODUCT(D54,E54)</f>
+        <v>4691.16</v>
+      </c>
+      <c r="G54" s="13">
+        <f>SUM(F54,F55)</f>
+        <v>5836.11</v>
+      </c>
+      <c r="H54" s="13">
+        <v>5836.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>16000</v>
+      </c>
+      <c r="D55" s="2">
+        <f>SUM(C55,-C53)</f>
+        <v>449</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="22"/>
+        <v>1144.9499999999998</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="12">
         <f>SUM(G2:G51)</f>
         <v>73468.78</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H56" s="12">
         <f>SUM(H2:H51)</f>
         <v>73075.540000000008</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G53" s="12"/>
-      <c r="H53" s="14">
-        <f>SUM(H52,-G52)</f>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="12"/>
+      <c r="H57" s="14">
+        <f>SUM(H56,-G56)</f>
         <v>-393.23999999999069</v>
       </c>
     </row>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1690,14 +1690,14 @@
         <v>31206</v>
       </c>
       <c r="D48" s="2">
-        <f>SUM(C48,-C46)</f>
+        <f t="shared" ref="D48:D57" si="19">SUM(C48,-C46)</f>
         <v>711</v>
       </c>
       <c r="E48" s="2">
         <v>4.71</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" ref="F48:F49" si="19">PRODUCT(D48,E48)</f>
+        <f t="shared" ref="F48:F49" si="20">PRODUCT(D48,E48)</f>
         <v>3348.81</v>
       </c>
       <c r="G48" s="13">
@@ -1717,14 +1717,14 @@
         <v>14667</v>
       </c>
       <c r="D49" s="2">
-        <f>SUM(C49,-C47)</f>
+        <f t="shared" si="19"/>
         <v>332</v>
       </c>
       <c r="E49" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>846.59999999999991</v>
       </c>
       <c r="G49" s="13"/>
@@ -1741,14 +1741,14 @@
         <v>32186</v>
       </c>
       <c r="D50" s="2">
-        <f>SUM(C50,-C48)</f>
+        <f t="shared" si="19"/>
         <v>980</v>
       </c>
       <c r="E50" s="2">
         <v>4.71</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" ref="F50:F51" si="20">PRODUCT(D50,E50)</f>
+        <f t="shared" ref="F50:F51" si="21">PRODUCT(D50,E50)</f>
         <v>4615.8</v>
       </c>
       <c r="G50" s="13">
@@ -1768,14 +1768,14 @@
         <v>15010</v>
       </c>
       <c r="D51" s="2">
-        <f>SUM(C51,-C49)</f>
+        <f t="shared" si="19"/>
         <v>343</v>
       </c>
       <c r="E51" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>874.65</v>
       </c>
       <c r="G51" s="13"/>
@@ -1792,14 +1792,14 @@
         <v>33099</v>
       </c>
       <c r="D52" s="2">
-        <f>SUM(C52,-C50)</f>
+        <f t="shared" si="19"/>
         <v>913</v>
       </c>
       <c r="E52" s="2">
         <v>4.71</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" ref="F52:F53" si="21">PRODUCT(D52,E52)</f>
+        <f t="shared" ref="F52:F53" si="22">PRODUCT(D52,E52)</f>
         <v>4300.2299999999996</v>
       </c>
       <c r="G52" s="13">
@@ -1819,14 +1819,14 @@
         <v>15551</v>
       </c>
       <c r="D53" s="2">
-        <f>SUM(C53,-C51)</f>
+        <f t="shared" si="19"/>
         <v>541</v>
       </c>
       <c r="E53" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F53" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1379.55</v>
       </c>
       <c r="G53" s="13"/>
@@ -1843,14 +1843,14 @@
         <v>34095</v>
       </c>
       <c r="D54" s="2">
-        <f>SUM(C54,-C52)</f>
+        <f t="shared" si="19"/>
         <v>996</v>
       </c>
       <c r="E54" s="2">
         <v>4.71</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" ref="F54:F55" si="22">PRODUCT(D54,E54)</f>
+        <f t="shared" ref="F54:F55" si="23">PRODUCT(D54,E54)</f>
         <v>4691.16</v>
       </c>
       <c r="G54" s="13">
@@ -1870,34 +1870,85 @@
         <v>16000</v>
       </c>
       <c r="D55" s="2">
-        <f>SUM(C55,-C53)</f>
+        <f t="shared" si="19"/>
         <v>449</v>
       </c>
       <c r="E55" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1144.9499999999998</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G56" s="12">
-        <f>SUM(G2:G51)</f>
-        <v>73468.78</v>
-      </c>
-      <c r="H56" s="12">
-        <f>SUM(H2:H51)</f>
-        <v>73075.540000000008</v>
+      <c r="A56" s="6">
+        <v>44377</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>34503</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="19"/>
+        <v>408</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" ref="F56:F57" si="24">PRODUCT(D56,E56)</f>
+        <v>1921.68</v>
+      </c>
+      <c r="G56" s="13">
+        <f>SUM(F56,F57)</f>
+        <v>2403.63</v>
+      </c>
+      <c r="H56" s="13">
+        <v>2394.21</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G57" s="12"/>
-      <c r="H57" s="14">
-        <f>SUM(H56,-G56)</f>
-        <v>-393.23999999999069</v>
+      <c r="A57" s="6"/>
+      <c r="B57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>16189</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="24"/>
+        <v>481.95</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="12">
+        <f>SUM(G2:G57)</f>
+        <v>87388.3</v>
+      </c>
+      <c r="H58" s="12">
+        <f>SUM(H2:H57)</f>
+        <v>86632.540000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="12"/>
+      <c r="H59" s="14">
+        <f>SUM(H58,-G58)</f>
+        <v>-755.75999999999476</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1935,20 +1935,71 @@
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G58" s="12">
-        <f>SUM(G2:G57)</f>
-        <v>87388.3</v>
-      </c>
-      <c r="H58" s="12">
-        <f>SUM(H2:H57)</f>
-        <v>86632.540000000008</v>
+      <c r="A58" s="6">
+        <v>44399</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>34749</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:D59" si="25">SUM(C58,-C56)</f>
+        <v>246</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" ref="F58:F59" si="26">PRODUCT(D58,E58)</f>
+        <v>1220.1600000000001</v>
+      </c>
+      <c r="G58" s="13">
+        <f>SUM(F58,F59)</f>
+        <v>1437.24</v>
+      </c>
+      <c r="H58" s="13">
+        <v>1442.2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G59" s="12"/>
-      <c r="H59" s="14">
-        <f>SUM(H58,-G58)</f>
-        <v>-755.75999999999476</v>
+      <c r="A59" s="6"/>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>16270</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="25"/>
+        <v>81</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="26"/>
+        <v>217.08</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="12">
+        <f>SUM(G2:G59)</f>
+        <v>88825.540000000008</v>
+      </c>
+      <c r="H60" s="12">
+        <f>SUM(H2:H59)</f>
+        <v>88074.74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="12"/>
+      <c r="H61" s="14">
+        <f>SUM(H60,-G60)</f>
+        <v>-750.80000000000291</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -141,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +188,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1571,7 @@
         <f>SUM(F42,F43)</f>
         <v>5111.8500000000004</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="17">
         <v>4928.7299999999996</v>
       </c>
     </row>
@@ -1603,7 +1621,7 @@
         <f>SUM(F44,F45)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="16">
         <v>6775.02</v>
       </c>
     </row>
@@ -1626,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -1649,11 +1667,11 @@
         <f t="shared" ref="F46:F47" si="18">PRODUCT(D46,E46)</f>
         <v>11892.75</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="16">
         <f>SUM(F46,F47)</f>
         <v>14940</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="16">
         <v>7757.38</v>
       </c>
     </row>
@@ -1986,20 +2004,122 @@
       <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G60" s="12">
-        <f>SUM(G2:G59)</f>
-        <v>88825.540000000008</v>
-      </c>
-      <c r="H60" s="12">
-        <f>SUM(H2:H59)</f>
-        <v>88074.74</v>
+      <c r="A60" s="6">
+        <v>44426</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15">
+        <v>34957</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" ref="D60:D61" si="27">SUM(C60,-C58)</f>
+        <v>208</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" ref="F60:F61" si="28">PRODUCT(D60,E60)</f>
+        <v>1031.68</v>
+      </c>
+      <c r="G60" s="13">
+        <f>SUM(F60,F61)</f>
+        <v>1216.6000000000001</v>
+      </c>
+      <c r="H60" s="13">
+        <v>1216.8399999999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G61" s="12"/>
-      <c r="H61" s="14">
-        <f>SUM(H60,-G60)</f>
-        <v>-750.80000000000291</v>
+      <c r="A61" s="6"/>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>16339</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="27"/>
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="28"/>
+        <v>184.92000000000002</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>44452</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="15">
+        <v>35154</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" ref="D62:D63" si="29">SUM(C62,-C60)</f>
+        <v>197</v>
+      </c>
+      <c r="E62" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" ref="F62:F63" si="30">PRODUCT(D62,E62)</f>
+        <v>977.12</v>
+      </c>
+      <c r="G62" s="13">
+        <f>SUM(F62,F63)</f>
+        <v>1156.68</v>
+      </c>
+      <c r="H62" s="13">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>16406</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="29"/>
+        <v>67</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="30"/>
+        <v>179.56</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="12">
+        <f>SUM(G2:G63)</f>
+        <v>91198.82</v>
+      </c>
+      <c r="H64" s="12">
+        <f>SUM(H2:H63)</f>
+        <v>90458.58</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="12"/>
+      <c r="H65" s="14">
+        <f>SUM(H64,-G64)</f>
+        <v>-740.24000000000524</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -500,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2106,20 +2106,71 @@
       <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G64" s="12">
-        <f>SUM(G2:G63)</f>
-        <v>91198.82</v>
-      </c>
-      <c r="H64" s="12">
-        <f>SUM(H2:H63)</f>
-        <v>90458.58</v>
-      </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="12"/>
-      <c r="H65" s="14">
-        <f>SUM(H64,-G64)</f>
-        <v>-740.24000000000524</v>
+      <c r="A64" s="6">
+        <v>44487</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="15">
+        <v>35636</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" ref="D64:D65" si="31">SUM(C64,-C62)</f>
+        <v>482</v>
+      </c>
+      <c r="E64" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" ref="F64:F65" si="32">PRODUCT(D64,E64)</f>
+        <v>2390.7199999999998</v>
+      </c>
+      <c r="G64" s="13">
+        <f>SUM(F64,F65)</f>
+        <v>3599.3999999999996</v>
+      </c>
+      <c r="H64" s="13">
+        <v>2865.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>16857</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="31"/>
+        <v>451</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="32"/>
+        <v>1208.68</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="12">
+        <f>SUM(G2:G65)</f>
+        <v>94798.22</v>
+      </c>
+      <c r="H66" s="12">
+        <f>SUM(H2:H65)</f>
+        <v>93324.22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="12"/>
+      <c r="H67" s="14">
+        <f>SUM(H66,-G66)</f>
+        <v>-1474</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/303ee.xlsx
+++ b/sputnik/personal/ee/303ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -187,7 +187,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H46" sqref="H44:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1570,7 @@
         <f>SUM(F42,F43)</f>
         <v>5111.8500000000004</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>4928.7299999999996</v>
       </c>
     </row>
@@ -1621,7 +1620,7 @@
         <f>SUM(F44,F45)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="15">
         <v>6775.02</v>
       </c>
     </row>
@@ -1644,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -1667,11 +1666,11 @@
         <f t="shared" ref="F46:F47" si="18">PRODUCT(D46,E46)</f>
         <v>11892.75</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <f>SUM(F46,F47)</f>
         <v>14940</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <v>7757.38</v>
       </c>
     </row>
@@ -2010,10 +2009,10 @@
       <c r="B60" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>34957</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <f t="shared" ref="D60:D61" si="27">SUM(C60,-C58)</f>
         <v>208</v>
       </c>
@@ -2061,10 +2060,10 @@
       <c r="B62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="14">
         <v>35154</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <f t="shared" ref="D62:D63" si="29">SUM(C62,-C60)</f>
         <v>197</v>
       </c>
@@ -2112,10 +2111,10 @@
       <c r="B64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>35636</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <f t="shared" ref="D64:D65" si="31">SUM(C64,-C62)</f>
         <v>482</v>
       </c>
@@ -2157,20 +2156,122 @@
       <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="12">
-        <f>SUM(G2:G65)</f>
-        <v>94798.22</v>
-      </c>
-      <c r="H66" s="12">
-        <f>SUM(H2:H65)</f>
-        <v>93324.22</v>
+      <c r="A66" s="6">
+        <v>44515</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <v>36482</v>
+      </c>
+      <c r="D66" s="14">
+        <f t="shared" ref="D66:D67" si="33">SUM(C66,-C64)</f>
+        <v>846</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" ref="F66:F67" si="34">PRODUCT(D66,E66)</f>
+        <v>4196.16</v>
+      </c>
+      <c r="G66" s="13">
+        <f>SUM(F66,F67)</f>
+        <v>4525.8</v>
+      </c>
+      <c r="H66" s="13">
+        <v>5252.08</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="12"/>
-      <c r="H67" s="14">
-        <f>SUM(H66,-G66)</f>
-        <v>-1474</v>
+      <c r="A67" s="6"/>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>16980</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="33"/>
+        <v>123</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="34"/>
+        <v>329.64000000000004</v>
+      </c>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>44550</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="14">
+        <v>37791</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" ref="D68:D69" si="35">SUM(C68,-C66)</f>
+        <v>1309</v>
+      </c>
+      <c r="E68" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" ref="F68:F69" si="36">PRODUCT(D68,E68)</f>
+        <v>6492.64</v>
+      </c>
+      <c r="G68" s="13">
+        <f>SUM(F68,F69)</f>
+        <v>8132.8</v>
+      </c>
+      <c r="H68" s="13">
+        <v>8115.24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>17592</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="35"/>
+        <v>612</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="36"/>
+        <v>1640.16</v>
+      </c>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="12">
+        <f>SUM(G2:G69)</f>
+        <v>107456.82</v>
+      </c>
+      <c r="H70" s="12">
+        <f>SUM(H2:H69)</f>
+        <v>106691.54000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="12"/>
+      <c r="H71" s="12">
+        <f>SUM(H70,-G70)</f>
+        <v>-765.27999999999884</v>
       </c>
     </row>
   </sheetData>
